--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/04.TraBH/TBH201130_TarisHN.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/04.TraBH/TBH201130_TarisHN.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -110,9 +110,6 @@
     <t>Người đại diện: TarisHN</t>
   </si>
   <si>
-    <t>Hà Nội, ngày 30  tháng 11 năm 2020</t>
-  </si>
-  <si>
     <t>SIM</t>
   </si>
   <si>
@@ -144,6 +141,12 @@
   </si>
   <si>
     <t>TG102SE</t>
+  </si>
+  <si>
+    <t>Tasetco 44281896</t>
+  </si>
+  <si>
+    <t>Hà Nội, ngày 02  tháng 12 năm 2020</t>
   </si>
 </sst>
 </file>
@@ -1240,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1346,7 +1349,9 @@
       <c r="C7" s="54"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="G7" s="17"/>
       <c r="H7" s="14"/>
       <c r="I7" s="25"/>
@@ -1436,7 +1441,7 @@
         <v>868183038063868</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" s="36" t="s">
         <v>20</v>
@@ -1459,16 +1464,16 @@
         <v>868183035920615</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="36" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="46" t="s">
         <v>30</v>
-      </c>
-      <c r="G13" s="46" t="s">
-        <v>31</v>
       </c>
       <c r="H13" s="46" t="s">
         <v>24</v>
@@ -1507,17 +1512,17 @@
         <v>868183033797601</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="36" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" s="46" t="s">
         <v>32</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>33</v>
       </c>
       <c r="I15" s="44"/>
     </row>
@@ -1526,23 +1531,23 @@
         <v>5</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="45">
         <v>868345035606367</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="36" t="s">
         <v>23</v>
       </c>
       <c r="F16" s="36"/>
       <c r="G16" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H16" s="46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I16" s="44"/>
     </row>
@@ -1551,13 +1556,13 @@
         <v>6</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="45">
         <v>868345035634435</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="36" t="s">
         <v>23</v>
@@ -1574,7 +1579,7 @@
         <v>7</v>
       </c>
       <c r="B18" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="45">
         <v>869627031843840</v>
@@ -1595,22 +1600,22 @@
         <v>8</v>
       </c>
       <c r="B19" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="45">
         <v>868926033939791</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="36" t="s">
         <v>23</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H19" s="46" t="s">
         <v>24</v>
@@ -1622,22 +1627,22 @@
         <v>9</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="45">
         <v>868345035615863</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="36" t="s">
         <v>23</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20" s="46" t="s">
         <v>24</v>
@@ -1649,22 +1654,22 @@
         <v>10</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="45">
         <v>863586032847265</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E21" s="36" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="46" t="s">
         <v>30</v>
-      </c>
-      <c r="G21" s="46" t="s">
-        <v>31</v>
       </c>
       <c r="H21" s="46" t="s">
         <v>24</v>
@@ -1686,7 +1691,7 @@
       <c r="E23" s="47"/>
       <c r="F23" s="47"/>
       <c r="G23" s="51" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H23" s="51"/>
       <c r="I23" s="51"/>
